--- a/backgrounds/PersonalityTraits.xlsx
+++ b/backgrounds/PersonalityTraits.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="344">
   <si>
     <t>Acolyte</t>
   </si>
@@ -46,6 +46,105 @@
     <t>City Watch</t>
   </si>
   <si>
+    <t>Clan Crafter</t>
+  </si>
+  <si>
+    <t>Cloistered Scholar</t>
+  </si>
+  <si>
+    <t>Cormanthor Refugee</t>
+  </si>
+  <si>
+    <t>Courtier</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>Dragon Casualty</t>
+  </si>
+  <si>
+    <t>Earthspur Miner</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>Failed Merchant</t>
+  </si>
+  <si>
+    <t>Faceless</t>
+  </si>
+  <si>
+    <t>Entertainer</t>
+  </si>
+  <si>
+    <t>Far Traveler</t>
+  </si>
+  <si>
+    <t>Folk Hero</t>
+  </si>
+  <si>
+    <t>Gate Urchin</t>
+  </si>
+  <si>
+    <t>Golgari Agent</t>
+  </si>
+  <si>
+    <t>Gruul Anarch</t>
+  </si>
+  <si>
+    <t>Gambler</t>
+  </si>
+  <si>
+    <t>Guild Merchant</t>
+  </si>
+  <si>
+    <t>Guild Artisan</t>
+  </si>
+  <si>
+    <t>Harborfolk</t>
+  </si>
+  <si>
+    <t>Haunted One</t>
+  </si>
+  <si>
+    <t>Hermit</t>
+  </si>
+  <si>
+    <t>Hillsfar Merchant</t>
+  </si>
+  <si>
+    <t>Hillsfar Smuggler</t>
+  </si>
+  <si>
+    <t>House Agent</t>
+  </si>
+  <si>
+    <t>Inheritor</t>
+  </si>
+  <si>
+    <t>Initiate</t>
+  </si>
+  <si>
+    <t>Inquisitor</t>
+  </si>
+  <si>
+    <t>Iron Route Bandit</t>
+  </si>
+  <si>
+    <t>Izzet Engineer</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Smuggler</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
     <t>I idolize a particular hero of my faith, and constantly refer to that person’s deeds and example.</t>
   </si>
   <si>
@@ -79,6 +178,87 @@
     <t>I'm always polite and respectful.</t>
   </si>
   <si>
+    <t>I believe that anything worth doing is worth doing right. I can't help it – I'm a perfectionist.</t>
+  </si>
+  <si>
+    <t>I use polysyllabic words that convey the impression of great erudition.</t>
+  </si>
+  <si>
+    <t>I long for a home that never really existed,whether in the camps, Hillsfar, or Myth Drannor.</t>
+  </si>
+  <si>
+    <t>I am driven to escape my past, and rarely stay in one place long.</t>
+  </si>
+  <si>
+    <t>Nothing bothers me for long.</t>
+  </si>
+  <si>
+    <t>I am unmoved by the wrath of nature.</t>
+  </si>
+  <si>
+    <t>I didn't have the cutthroat attitude necessary to succeed. I won't make that mistake again.</t>
+  </si>
+  <si>
+    <t>I'm earnest and uncommonly direct.</t>
+  </si>
+  <si>
+    <t>I know a story relevant to almost every situation.</t>
+  </si>
+  <si>
+    <t>I have different assumptions from those around me concerning personal space, blithely invading others' space in innocence, or reacting to ignorant invasion of my own.</t>
+  </si>
+  <si>
+    <t>I judge people by their actions, not their words.</t>
+  </si>
+  <si>
+    <t>I appreciate the simple things in life: a song, a warm meal, a sunny day. I don't need any more.</t>
+  </si>
+  <si>
+    <t>Remember, I could kill you in your sleep. Or put centipedes in your bedroll.</t>
+  </si>
+  <si>
+    <t>Unlike people, the beasts of the wild are friends who won't stab me in the back.</t>
+  </si>
+  <si>
+    <t>I plan for every contingency. Leave nothing to chance!</t>
+  </si>
+  <si>
+    <t>I am curious. I want to know why things are the way they are and why people do the things that they do.</t>
+  </si>
+  <si>
+    <t>I don't run from evil. Evil runs from me.</t>
+  </si>
+  <si>
+    <t>I've been isolated for so long that I rarely speak, preferring gestures and the occasional grunt.</t>
+  </si>
+  <si>
+    <t>I fill my evenings with wine or mead and song.</t>
+  </si>
+  <si>
+    <t>When I'm not smuggling, I gamble.</t>
+  </si>
+  <si>
+    <t>I 'm always looking to i mprove efficiency.</t>
+  </si>
+  <si>
+    <t>I always have a joke on hand when the mood gets too serious.</t>
+  </si>
+  <si>
+    <t>It will all go smoothly if everyone just does as I say.</t>
+  </si>
+  <si>
+    <t>If people leave their gear unsecured, they must not want it very much.</t>
+  </si>
+  <si>
+    <t>I have a hard time staying focused on ? oh, and my brain tends to jump from one ? did I mention focus?</t>
+  </si>
+  <si>
+    <t>My eloquent flattery makes everyone I talk to feel like the most wonderful and important person in the world.</t>
+  </si>
+  <si>
+    <t>I love being on the water but hate fishing.</t>
+  </si>
+  <si>
     <t>I can find common ground between the fiercest enemies, empathizing with them and always working toward peace.</t>
   </si>
   <si>
@@ -112,6 +292,87 @@
     <t>I'm haunted by memories of war. I can't get the images of violence out of my mind.</t>
   </si>
   <si>
+    <t>I'm a snob who looks down on those who can't appreciate fine art.</t>
+  </si>
+  <si>
+    <t>I've read every book in the world's greatest libraries – or I like to boast that I have.</t>
+  </si>
+  <si>
+    <t>Though I am not an elf, I am a fervent, radical worshipper of the elven gods.</t>
+  </si>
+  <si>
+    <t>I know secrets of the Maimed Virulence, but fear the harm that may befall me should others learn them.</t>
+  </si>
+  <si>
+    <t>I hate the horrors of the Underdark with a passion. They took my friends and family and almost got me.</t>
+  </si>
+  <si>
+    <t>My friends are my crew; we sink or float together.</t>
+  </si>
+  <si>
+    <t>Even my competitors said I was affable and talented. Those traits should serve me well.</t>
+  </si>
+  <si>
+    <t>I strive to have no personality-it's easier to forget what's hardly there.</t>
+  </si>
+  <si>
+    <t>Whenever I come to a new place, I collect local rumors and spread gossip.</t>
+  </si>
+  <si>
+    <t>I have my own ideas about what is and is not food, and I find the eating habits of those around me fascinating, confusing, or revolting.</t>
+  </si>
+  <si>
+    <t>If someone is in trouble, I’m always ready to lend help.</t>
+  </si>
+  <si>
+    <t>My problems are always caused by others. I'm never to blame.</t>
+  </si>
+  <si>
+    <t>I like to remind people of their inevitable demise.</t>
+  </si>
+  <si>
+    <t>Go ahead and insult me - I dare you.</t>
+  </si>
+  <si>
+    <t>Every copper wants to be a silver. Each bet is an opportunity.</t>
+  </si>
+  <si>
+    <t>I can't sing, but that never stops me from doing it, loudly. Everyone loves a good sea chanty!</t>
+  </si>
+  <si>
+    <t>I like to read and memorize poetry. It keeps me calm and brings me fleeting moments of happiness.</t>
+  </si>
+  <si>
+    <t>I am utterly serene, even in the face of disaster.</t>
+  </si>
+  <si>
+    <t>I greatly admire gladiators and enjoy the Arena.</t>
+  </si>
+  <si>
+    <t>I just love Halfling cooking and baking!</t>
+  </si>
+  <si>
+    <t>I love to share trivia about my house's business.</t>
+  </si>
+  <si>
+    <t>I use sarcasm and insults to keep a distance between myself and my crop-mates, because I don’t want to get attached to them.</t>
+  </si>
+  <si>
+    <t>Despair is an extravagance we can ill afford.</t>
+  </si>
+  <si>
+    <t>I feel more comfortable sleeping under the open sky.</t>
+  </si>
+  <si>
+    <t>I get really excited about my ideas and I can't wait to talk about them and start putting them into practice and tinkering with them and I want to tell you about how exciting it all is!</t>
+  </si>
+  <si>
+    <t>The common folk love me for my kindness and generosity.</t>
+  </si>
+  <si>
+    <t>I think of everything in terms of monetary value.</t>
+  </si>
+  <si>
     <t>I see omens in every event and action. The gods try to speak to us, we just need to listen.</t>
   </si>
   <si>
@@ -145,6 +406,87 @@
     <t>I've lost too many friends, and I'm slow to make new ones.</t>
   </si>
   <si>
+    <t>I always want to know how things work and what makes people tick.</t>
+  </si>
+  <si>
+    <t>I'm used to helping out those who aren't as smart as I am, and I patiently explain anything and everything to others.</t>
+  </si>
+  <si>
+    <t>I live in the moment, knowing my life could be turned upside down any day.</t>
+  </si>
+  <si>
+    <t>Speaking of my ordeal helps sooth the still open wounds in my soul.</t>
+  </si>
+  <si>
+    <t>Anything worth doing takes time and patience. I have learned to plan and wait for the things I want and to be patient to achieve my goals.</t>
+  </si>
+  <si>
+    <t>I need long stretches of quiet to clear my head.</t>
+  </si>
+  <si>
+    <t>To prosper, you have to be in control.</t>
+  </si>
+  <si>
+    <t>I treasure a memento of the person or instance that set me upon my path.</t>
+  </si>
+  <si>
+    <t>I'm a hopeless romantic, always searching for that "special someone."</t>
+  </si>
+  <si>
+    <t>I have a strong code of honor or sense of propriety that others don't comprehend.</t>
+  </si>
+  <si>
+    <t>When I set my mind to something, I follow through no matter what gets in my way.</t>
+  </si>
+  <si>
+    <t>I am afraid I could wind up back on the streets any day.</t>
+  </si>
+  <si>
+    <t>Sometimes I give voice to the whispers of the rot, which I hear but no one else does.</t>
+  </si>
+  <si>
+    <t>I scorn those who can't survive away from the comforts of the city.</t>
+  </si>
+  <si>
+    <t>I'm one of Lady Luck's favored. Anything I try is destined to succeed.</t>
+  </si>
+  <si>
+    <t>I think the High Blade is doing a terrific job, don't you?</t>
+  </si>
+  <si>
+    <t>I spend money freely and live life to the fullest, knowing that tomorrow I might die.</t>
+  </si>
+  <si>
+    <t>The leader of my community had something wise to say on every topic, and I am eager to share that wisdom.</t>
+  </si>
+  <si>
+    <t>I take my wealth for granted. It seldom occurs to me that others aren't rich themselves.</t>
+  </si>
+  <si>
+    <t>I party with dwarves whenever I can.</t>
+  </si>
+  <si>
+    <t>I never forget an insult against me or my house.</t>
+  </si>
+  <si>
+    <t>I’ll settle for nothing less than perfection—in myself, in my cropmates, in everything.</t>
+  </si>
+  <si>
+    <t>I know the writings of Saint Raban backward and forward.</t>
+  </si>
+  <si>
+    <t>I always pre-plan my escape should things go bad; I always like to have an exit strategy.</t>
+  </si>
+  <si>
+    <t>It's not magic-or anything, really-if you do it only halfway. Whatever I do, I give it all I've got.</t>
+  </si>
+  <si>
+    <t>No one could doubt by looking at my regal bearing that I am a cut above the unwashed masses.</t>
+  </si>
+  <si>
+    <t>I never stop smiling.</t>
+  </si>
+  <si>
     <t>Nothing can shake my optimistic attitude.</t>
   </si>
   <si>
@@ -178,6 +520,87 @@
     <t>I'm full of inspiring and cautionary tales from my military experience relevant to almost every combat situation.</t>
   </si>
   <si>
+    <t>I'm full of witty aphorisms and have a proverb for every occasion.</t>
+  </si>
+  <si>
+    <t>There's nothing I like more than a good mystery.</t>
+  </si>
+  <si>
+    <t>I appreciate beauty in all of its forms.</t>
+  </si>
+  <si>
+    <t>My former life is meaningless, and was ripped to shreds by the claws of Vorgansharax. All that matters now is what I do with the future.</t>
+  </si>
+  <si>
+    <t>I can party with everyone. Whether with dwarves, or goliaths, or deep gnomes, I can find a way to have a good time.</t>
+  </si>
+  <si>
+    <t>Rich folk don't know the satisfaction of hard work.</t>
+  </si>
+  <si>
+    <t>The customer is always right.</t>
+  </si>
+  <si>
+    <t>I sleep just as much as I need to and on an unusual schedule.</t>
+  </si>
+  <si>
+    <t>Nobody stays angry at me or around me for long, since I can defuse any amount of tension.</t>
+  </si>
+  <si>
+    <t>I express affection or contempt in ways that are unfamiliar to others.</t>
+  </si>
+  <si>
+    <t>I have a strong sense of fair play and always try to find the most equitable solution to arguments.</t>
+  </si>
+  <si>
+    <t>I get along with everyone.</t>
+  </si>
+  <si>
+    <t>I do my best to discourage anyone from approaching or talking to me.</t>
+  </si>
+  <si>
+    <t>Don't tell me I'm not allowed to do something.</t>
+  </si>
+  <si>
+    <t>I've lost so much to gambling that I refuse to spend money on anything anymore.</t>
+  </si>
+  <si>
+    <t>I'm very excited that the House Built on Gold is being restored. I am a zealous worshipper of Waukeen.</t>
+  </si>
+  <si>
+    <t>I live for the thrill of the hunt.</t>
+  </si>
+  <si>
+    <t>I feel tremendous empathy for all who suffer.</t>
+  </si>
+  <si>
+    <t>I leave broken hearts all around the Moonsea and up and down the Sword Coast.</t>
+  </si>
+  <si>
+    <t>I'm a terrible singer, but I love to do it.</t>
+  </si>
+  <si>
+    <t>I'm enthusiastic about everything my house does.</t>
+  </si>
+  <si>
+    <t>I’m so focused on the glorious afterlife that nothing in this life can shake my calm resolve.</t>
+  </si>
+  <si>
+    <t>I try to see the bright side in the very worst situations.</t>
+  </si>
+  <si>
+    <t>I tend to give animal owners breeding and care advice whether or not they want it.</t>
+  </si>
+  <si>
+    <t>I do what my gut tells me.</t>
+  </si>
+  <si>
+    <t>I take great pains to always look my best and follow the latest fashions.</t>
+  </si>
+  <si>
+    <t>Nothing rattles me; I have a lie for every occasion.</t>
+  </si>
+  <si>
     <t>I quote sacred texts and proverbs in almost every situation.</t>
   </si>
   <si>
@@ -211,6 +634,87 @@
     <t>I can stare down a hell hound without flinching.</t>
   </si>
   <si>
+    <t>I'm rude to people who lack my commitment to hard work and fair play.</t>
+  </si>
+  <si>
+    <t>I'm willing to listen to every side of an argument before I make my own judgment.</t>
+  </si>
+  <si>
+    <t>I hate the dark elves and the Netherese for each driving the elves out of Cormanthyr in the past.</t>
+  </si>
+  <si>
+    <t>I have faced the worst a dragon can deliver and survived. I am fearless, and my resolve unshakable.</t>
+  </si>
+  <si>
+    <t>I'd rather be mining. This is okay; mining is better.</t>
+  </si>
+  <si>
+    <t>I laugh heartily, feel deeply, and fear nothing.</t>
+  </si>
+  <si>
+    <t>I was cutting corners and breaking deals to maximize profit. That's why I failed.</t>
+  </si>
+  <si>
+    <t>I think far ahead, a detachedness often mistaken for daydreaming.</t>
+  </si>
+  <si>
+    <t>I love a good insult, even one directed at me.</t>
+  </si>
+  <si>
+    <t>I honor my deities through practices that are foreign to this land.</t>
+  </si>
+  <si>
+    <t>I’m confident in my own abilities and do what I can to instill confidence in others.</t>
+  </si>
+  <si>
+    <t>I see people as marks for a con and have difficulty feeling true empathy for them.</t>
+  </si>
+  <si>
+    <t>I have accepted my death. Hence, I don't fear it.</t>
+  </si>
+  <si>
+    <t>Laws are for people who are afraid to face their inner beasts.</t>
+  </si>
+  <si>
+    <t>Nothing is certain. Planning is a coward's act.</t>
+  </si>
+  <si>
+    <t>I am quite superstitious. I see portents in everyday occurrences.</t>
+  </si>
+  <si>
+    <t>I don’t talk about the thing that torments me. I’d rather not burden others with my curse.</t>
+  </si>
+  <si>
+    <t>I'm oblivious to etiquette and social expectations.</t>
+  </si>
+  <si>
+    <t>I work hard and seldom make time for fun.</t>
+  </si>
+  <si>
+    <t>I was raised to honor Chauntea and still do.</t>
+  </si>
+  <si>
+    <t>I represent my house and take pride in my looks.</t>
+  </si>
+  <si>
+    <t>I enjoy using my skills to help those who lack those same skills.</t>
+  </si>
+  <si>
+    <t>It helps me feel better when others show sympathy or appreciation for the horrors I’ve endured.</t>
+  </si>
+  <si>
+    <t>I lost a pet as a child and sadly reflect on it to this day.</t>
+  </si>
+  <si>
+    <t>Life's an experiment, and I can't wait to see what happens.</t>
+  </si>
+  <si>
+    <t>I don't like to get my hands dirty, and I won't be caught dead in unsuitable accommodations.</t>
+  </si>
+  <si>
+    <t>I love gold but won't cheat a friend.</t>
+  </si>
+  <si>
     <t>I misquote sacred texts and proverbs in almost every situation.</t>
   </si>
   <si>
@@ -244,6 +748,87 @@
     <t>I enjoy being strong and like breaking things.</t>
   </si>
   <si>
+    <t>I like to talk at length about my profession.</t>
+  </si>
+  <si>
+    <t>I… speak… slowly… when talking… to idiots,… which… almost… everyone… is… compared… to me.</t>
+  </si>
+  <si>
+    <t>I am a forest bumpkin who grew up in a tent in the woods and is wholly ignorant of city life.</t>
+  </si>
+  <si>
+    <t>I am haunted by my tortured past, and wake at night screaming at half-remembered horrors.</t>
+  </si>
+  <si>
+    <t>I think that I will stumble upon great riches if I just keep looking.</t>
+  </si>
+  <si>
+    <t>I work hard; nature offers no handouts.</t>
+  </si>
+  <si>
+    <t>When I get an idea, I am single-minded in its execution—even if it's a terrible idea.</t>
+  </si>
+  <si>
+    <t>I cultivate a single obscure hobby or study and eagerly discuss it at length.</t>
+  </si>
+  <si>
+    <t>I get bitter if I'm not the center of attention.</t>
+  </si>
+  <si>
+    <t>I begin or end my day with small traditional rituals that are unfamiliar to those around me.</t>
+  </si>
+  <si>
+    <t>Thinking is for other people. I prefer action.</t>
+  </si>
+  <si>
+    <t>I have a real flair for matchmaking. I can find anyone a spouse!</t>
+  </si>
+  <si>
+    <t>Like roots growing through stone, I am relentless and determined in my action.</t>
+  </si>
+  <si>
+    <t>I smear the blood of my enemies over my skin.</t>
+  </si>
+  <si>
+    <t>I can't be sure who I've swindled, cheated, or defeated, so I keep a low profile in public.</t>
+  </si>
+  <si>
+    <t>I resent the rich and enjoy thwarting their plans and spoiling their fun in small ways.</t>
+  </si>
+  <si>
+    <t>I expect danger around every corner.</t>
+  </si>
+  <si>
+    <t>I connect everything that happens to me to a grand, cosmic plan.</t>
+  </si>
+  <si>
+    <t>I am a particularly devout and pray often.</t>
+  </si>
+  <si>
+    <t>The blood sports of the Arena sicken me.</t>
+  </si>
+  <si>
+    <t>I'm critical of monarchies and limits on the houses.</t>
+  </si>
+  <si>
+    <t>I train hard so that I can play hard at the end of the day. I fully expect to play even harder in the glorious afterlife, but I’m not in a hurry to get there.</t>
+  </si>
+  <si>
+    <t>I prefer to face evil with a strong group of friends in front of me.</t>
+  </si>
+  <si>
+    <t>I always form a powerful, emotional bond with my mount.</t>
+  </si>
+  <si>
+    <t>I pepper my speech with the incomprehensible jargon of my trade, like mizzium droplets inserted into a weird-field suspension.</t>
+  </si>
+  <si>
+    <t>Despite my noble birth, I do not place myself above other folk. We all have the same blood.</t>
+  </si>
+  <si>
+    <t>I enjoy doing things others believe to be impossible.</t>
+  </si>
+  <si>
     <t>I am tolerant of other faiths and respect the worship of other gods</t>
   </si>
   <si>
@@ -274,6 +859,81 @@
     <t>I have a crude sense of humor.</t>
   </si>
   <si>
+    <t>I don't part with my money easily and will haggle tirelessly to get the best deal possible.</t>
+  </si>
+  <si>
+    <t>I am horribly, horribly awkward in social situations.</t>
+  </si>
+  <si>
+    <t>I was raised alongside children of many other races. I harbor no racial prejudices at all.</t>
+  </si>
+  <si>
+    <t>I sleep with my back to a wall or tree, and a weapon within arm’s reach.</t>
+  </si>
+  <si>
+    <t>People who don't work with their hands and who live in houses are soft and weak.</t>
+  </si>
+  <si>
+    <t>I dislike bargaining; state your price and mean it.</t>
+  </si>
+  <si>
+    <t>If I can be everyone's friend, I'll always have support.</t>
+  </si>
+  <si>
+    <t>I am ever learning how to be among others-when to stay quiet, when to laugh.</t>
+  </si>
+  <si>
+    <t>I'll settle for nothing less than perfection.</t>
+  </si>
+  <si>
+    <t>I misuse long words in an attempt to sound smarter.</t>
+  </si>
+  <si>
+    <t>I think money is the true measure of appreciation and affection. Everything else is talk or an act.</t>
+  </si>
+  <si>
+    <t>I put my knowledge of anatomy to use by narrating the injuries my enemies suffer in grisly detail.</t>
+  </si>
+  <si>
+    <t>I was, in fact, raised by maaka.</t>
+  </si>
+  <si>
+    <t>The perfect bet is out there somewhere. I just have to keep my eyes open.</t>
+  </si>
+  <si>
+    <t>I have a sea story to fit every occasion.</t>
+  </si>
+  <si>
+    <t>I refuse to become a victim, and I will not allow others to be victimized.</t>
+  </si>
+  <si>
+    <t>I often get lost in my own thoughts and contemplation, becoming oblivious to my surroundings.</t>
+  </si>
+  <si>
+    <t>The Red Plumes caught me once. I hate them.</t>
+  </si>
+  <si>
+    <t>I think non-humans are really interesting.</t>
+  </si>
+  <si>
+    <t>I’m perfectly happy letting others pick up the slack for me while I take it easy.</t>
+  </si>
+  <si>
+    <t>I want to see the wicked burn for the evil they’ve brought on us.</t>
+  </si>
+  <si>
+    <t>I recoil at the thought of killing someone else’s pet or mount.</t>
+  </si>
+  <si>
+    <t>Great ideas are fine, but great results are what counts.</t>
+  </si>
+  <si>
+    <t>My favor, once lost, is lost forever.</t>
+  </si>
+  <si>
+    <t>I become wistful when I see the sun rise over the ocean.</t>
+  </si>
+  <si>
     <t>I am intolerant of other faiths and condemn the worship of other gods</t>
   </si>
   <si>
@@ -302,6 +962,81 @@
   </si>
   <si>
     <t>I face problems head-on. A simple, direct solution is the best path to success.</t>
+  </si>
+  <si>
+    <t>I'm well known for my work, and I want to make sure everyone appreciates it. I'm always taken aback when people haven't heard of me.</t>
+  </si>
+  <si>
+    <t>I'm convinced that people are always trying to steal my secrets.</t>
+  </si>
+  <si>
+    <t>The elves have just the right word for so many things that cannot be expressed as well in other languages. I pepper my speech with elven words, phrases, and sayings.</t>
+  </si>
+  <si>
+    <t>I am slow to trust, but incredibly loyal to those who have earned it.</t>
+  </si>
+  <si>
+    <t>I wish I were more educated. I look up to people who are.</t>
+  </si>
+  <si>
+    <t>Luck favors me, and I take risks others might not.</t>
+  </si>
+  <si>
+    <t>My heart wasn't in being a merchant, so I failed. I'm not all that keen on adventuring either, but I need the money.</t>
+  </si>
+  <si>
+    <t>I behave like an extreme opposite of my persona.</t>
+  </si>
+  <si>
+    <t>I change my mood or my mind as quickly as I change key in a song.</t>
+  </si>
+  <si>
+    <t>I get bored easily. When am I going to get on with my destiny?</t>
+  </si>
+  <si>
+    <t>I don't like having a lot of stuff, just a few simple things I need. I don't like being tied down and tend to leave things behind when I don't need them anymore.</t>
+  </si>
+  <si>
+    <t>Like a wild animal, I lash out viciously when I'm provoked-and I'm easily provoked.</t>
+  </si>
+  <si>
+    <t>HarrRRAAGGHH! [I rarely form a coherent sentence and prefer to express myself by breaking things.]</t>
+  </si>
+  <si>
+    <t>I have beaten my addiction, but all it takes is one weak moment and I'll be back at the card table.</t>
+  </si>
+  <si>
+    <t>I'm a fisher, but I secretly detest eating fish. I will do anything to avoid it.</t>
+  </si>
+  <si>
+    <t>I put no trust in divine beings.</t>
+  </si>
+  <si>
+    <t>I am working on a grand philosophical theory and love sharing my ideas.</t>
+  </si>
+  <si>
+    <t>I ask a lot of questions to get information about those with whom I am working and dealing.</t>
+  </si>
+  <si>
+    <t>I exaggerate the tales of my exploits.</t>
+  </si>
+  <si>
+    <t>I’m constantly sizing up everyone around me, thinking about what kind of opponent they’ll be in the final trial.</t>
+  </si>
+  <si>
+    <t>I feel the sin being purged from me as I help cleanse the world.</t>
+  </si>
+  <si>
+    <t>I prefer to hang to the back of a scuffle or discussion. Better to have my enemies in front of me.</t>
+  </si>
+  <si>
+    <t>If you can guess what I'm about to do, that means I've run out of imagination.</t>
+  </si>
+  <si>
+    <t>If you do me an injury, I will crush you, ruin your name, and salt your fields.</t>
+  </si>
+  <si>
+    <t>I am no common criminal; I am a mastermind.</t>
   </si>
   <si>
     <t>I’ve enjoyed fine food, drink, and high society among my temple’s elite. Rough living grates on me.</t>
@@ -605,289 +1340,1170 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>168</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>206</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>244</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>281</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>91</v>
+        <v>311</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>96</v>
+        <v>316</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/PersonalityTraits.xlsx
+++ b/backgrounds/PersonalityTraits.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="427">
   <si>
     <t>Acolyte</t>
   </si>
@@ -139,6 +139,39 @@
     <t>Knight</t>
   </si>
   <si>
+    <t>Mercenary Veteran</t>
+  </si>
+  <si>
+    <t>Mulmaster Aristocrat</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Orzhov Representative</t>
+  </si>
+  <si>
+    <t>Outlander</t>
+  </si>
+  <si>
+    <t>Pirate</t>
+  </si>
+  <si>
+    <t>Phlan Insurgent</t>
+  </si>
+  <si>
+    <t>Phlan Refugee</t>
+  </si>
+  <si>
+    <t>Plaintiff</t>
+  </si>
+  <si>
+    <t>Rakdos Cultist</t>
+  </si>
+  <si>
+    <t>Rival Intern</t>
+  </si>
+  <si>
     <t>Smuggler</t>
   </si>
   <si>
@@ -256,6 +289,33 @@
     <t>My eloquent flattery makes everyone I talk to feel like the most wonderful and important person in the world.</t>
   </si>
   <si>
+    <t>My ambitions are boundless. I will be a Zor or Zora one day!</t>
+  </si>
+  <si>
+    <t>I am always willing to act in accordance with the financial incentive offered.</t>
+  </si>
+  <si>
+    <t>I'm driven by a wanderlust that led me away from home.</t>
+  </si>
+  <si>
+    <t>My friends know they can rely on me, no matter what.</t>
+  </si>
+  <si>
+    <t>My patience knows no bounds, so long as my goal is in sight.</t>
+  </si>
+  <si>
+    <t>I may have lost everything I worked for most of my life, but there's work to be done. No time to linger on the past.</t>
+  </si>
+  <si>
+    <t>I can't believe I have a chance to join Acquisitions Incorporated! The fun I'm going to have!</t>
+  </si>
+  <si>
+    <t>I revel in mayhem, the more destructive the better.</t>
+  </si>
+  <si>
+    <t>My previous employer didn’t respect me, and now I’ll do whatever I can to gain respect.</t>
+  </si>
+  <si>
     <t>I love being on the water but hate fishing.</t>
   </si>
   <si>
@@ -370,6 +430,33 @@
     <t>The common folk love me for my kindness and generosity.</t>
   </si>
   <si>
+    <t>I must always look my best.</t>
+  </si>
+  <si>
+    <t>Debts are never meant to be forgiven.</t>
+  </si>
+  <si>
+    <t>I watch over my friends as if they were a litter of newborn pups.</t>
+  </si>
+  <si>
+    <t>I work hard so that I can play hard when the work is done.</t>
+  </si>
+  <si>
+    <t>In life and in struggle, the ends justify my actions.</t>
+  </si>
+  <si>
+    <t>I worked hard to get where I am and I refuse to let a little hardship stop me from succeeding.</t>
+  </si>
+  <si>
+    <t>I've been wronged my entire life, and the world owes me.</t>
+  </si>
+  <si>
+    <t>When violence breaks out, I lose myself in rage, and it's sometimes hard to stop.</t>
+  </si>
+  <si>
+    <t>The job is important, but the relationships I forge with my coworkers are even more so.</t>
+  </si>
+  <si>
     <t>I think of everything in terms of monetary value.</t>
   </si>
   <si>
@@ -484,6 +571,33 @@
     <t>No one could doubt by looking at my regal bearing that I am a cut above the unwashed masses.</t>
   </si>
   <si>
+    <t>Beauty is everywhere. I can find it in even the homeliest person and the most horrible tragedy.</t>
+  </si>
+  <si>
+    <t>I am accustomed to enjoying the finest pleasures money can buy.</t>
+  </si>
+  <si>
+    <t>I once ran twenty-five miles without stopping to warn my clan of an approaching orc horde. I'd do it again if I had to.</t>
+  </si>
+  <si>
+    <t>I enjoy sailing into new ports and making new friends over a flagon of ale.</t>
+  </si>
+  <si>
+    <t>If you aren’t helping me, you’d best at least stay out of my way.</t>
+  </si>
+  <si>
+    <t>I protect those around me: You never know when one of them will be useful.</t>
+  </si>
+  <si>
+    <t>I have always tried to make the best of a bad situation.</t>
+  </si>
+  <si>
+    <t>Everything is funny to me, and the most hilarious and bloodiest things leave me cackling with sadistic glee.</t>
+  </si>
+  <si>
+    <t>The job is everything to me. Who needs relaxation, hobbies, and a social life?</t>
+  </si>
+  <si>
     <t>I never stop smiling.</t>
   </si>
   <si>
@@ -598,6 +712,33 @@
     <t>I take great pains to always look my best and follow the latest fashions.</t>
   </si>
   <si>
+    <t>Decorum must be preserved at all costs.</t>
+  </si>
+  <si>
+    <t>No one could doubt that I am a cut above the masses of pitiful peasants that infest the city.</t>
+  </si>
+  <si>
+    <t>I have a lesson for every situation, drawn from observing nature.</t>
+  </si>
+  <si>
+    <t>I stretch the truth for the sake of a good story.</t>
+  </si>
+  <si>
+    <t>I long for the life that was taken away from me.</t>
+  </si>
+  <si>
+    <t>I have always gotten ahead by giving, why change now?</t>
+  </si>
+  <si>
+    <t>The law doesn't protect the honest and the hard working. I'm going to do whatever needs to be done to make things right.</t>
+  </si>
+  <si>
+    <t>I derive genuine pleasure from the pain of others.</t>
+  </si>
+  <si>
+    <t>I know I’m not the best and brightest, but if I put my best self forward, I can overcome anything.</t>
+  </si>
+  <si>
     <t>Nothing rattles me; I have a lie for every occasion.</t>
   </si>
   <si>
@@ -712,6 +853,33 @@
     <t>I don't like to get my hands dirty, and I won't be caught dead in unsuitable accommodations.</t>
   </si>
   <si>
+    <t>I will not admit I am wrong if I can avoid it.</t>
+  </si>
+  <si>
+    <t>I can't stand to spend a zib more than necessary to purchase what I need.</t>
+  </si>
+  <si>
+    <t>I place no stock in wealthy or well-mannered folk. Money and manners won't save you from a hungry owlbear.</t>
+  </si>
+  <si>
+    <t>To me, a tavern brawl is a nice way to get to know a new city.</t>
+  </si>
+  <si>
+    <t>Friends and family perished, tragically, before my eyes. I hope never to undergo that again.</t>
+  </si>
+  <si>
+    <t>I prepare for everything. It paid off in Phlan and it will pay off again.</t>
+  </si>
+  <si>
+    <t>I'm always in the wrong place at the wrong time.</t>
+  </si>
+  <si>
+    <t>I enjoy testing other people's patience.</t>
+  </si>
+  <si>
+    <t>My former boss was an idiot. So was my boss before that. And before that. I’m sure those were all coincidences.</t>
+  </si>
+  <si>
     <t>I love gold but won't cheat a friend.</t>
   </si>
   <si>
@@ -826,6 +994,33 @@
     <t>Despite my noble birth, I do not place myself above other folk. We all have the same blood.</t>
   </si>
   <si>
+    <t>I am extremely well-educated and frequently remind others of that fact.</t>
+  </si>
+  <si>
+    <t>I hate it when people try to make light of a serious situation.</t>
+  </si>
+  <si>
+    <t>I'm always picking things up, absently fiddling with them, and sometimes accidentally breaking them.</t>
+  </si>
+  <si>
+    <t>I never pass up a friendly wager.</t>
+  </si>
+  <si>
+    <t>Making the right choices in life is important to me. The choices I make might save not just my life, but the lives of others as well.</t>
+  </si>
+  <si>
+    <t>I will reclaim my home. Though the path may be long, I will never give up hope.</t>
+  </si>
+  <si>
+    <t>My superiors are smarter and wiser than I am. I do what I'm told.</t>
+  </si>
+  <si>
+    <t>I can't stand it when things are predictable, so I like to add a little chaos to every situation.</t>
+  </si>
+  <si>
+    <t>This company is so much better than my previous one. It will always be the best until they stop paying me.</t>
+  </si>
+  <si>
     <t>I enjoy doing things others believe to be impossible.</t>
   </si>
   <si>
@@ -931,6 +1126,33 @@
     <t>My favor, once lost, is lost forever.</t>
   </si>
   <si>
+    <t>I take what I can today, because I do not know what tomorrow holds.</t>
+  </si>
+  <si>
+    <t>I want to make sure everyone is aware of how wealthy, powerful, and important I am.</t>
+  </si>
+  <si>
+    <t>I feel far more comfortable around animals than people.</t>
+  </si>
+  <si>
+    <t>My language is as foul as an otyugh nest.</t>
+  </si>
+  <si>
+    <t>I can never allow my foes to get the drop on me.</t>
+  </si>
+  <si>
+    <t>I never cared for personal hygiene, and am amazed that it bothers others.</t>
+  </si>
+  <si>
+    <t>Never pass up the opportunity to make an easy bit of coin. That's my motto.</t>
+  </si>
+  <si>
+    <t>I throw my weight around to make sure I get my way.</t>
+  </si>
+  <si>
+    <t>I know this dagger belongs to the company, but I’m sure they won’t miss it. Or this flask. Or this armor.</t>
+  </si>
+  <si>
     <t>I become wistful when I see the sun rise over the ocean.</t>
   </si>
   <si>
@@ -1034,6 +1256,33 @@
   </si>
   <si>
     <t>If you do me an injury, I will crush you, ruin your name, and salt your fields.</t>
+  </si>
+  <si>
+    <t>My life is full of dance, song, drink, and love.</t>
+  </si>
+  <si>
+    <t>I can't think of anything to look forward to.</t>
+  </si>
+  <si>
+    <t>I was, in fact, raised by wolves.</t>
+  </si>
+  <si>
+    <t>I like a job well done, especially if I can convince someone else to do it.</t>
+  </si>
+  <si>
+    <t>Time is a precious resource that I must spend wisely.</t>
+  </si>
+  <si>
+    <t>I am always willing to volunteer my services, just as long as I don’t have to do anything.</t>
+  </si>
+  <si>
+    <t>I'm beginning to feel like the gods are not on my side.</t>
+  </si>
+  <si>
+    <t>I enjoy breaking delicate works of art. And fingers, which are sort of the same.</t>
+  </si>
+  <si>
+    <t>It’s only a matter of time before I’ll be upper management. I just have to kiss up to my superiors and kick down those beneath me.</t>
   </si>
   <si>
     <t>I am no common criminal; I am a mastermind.</t>
@@ -1439,1071 +1688,1368 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AJ3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="AR3" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>130</v>
+        <v>186</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>168</v>
+        <v>233</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>206</v>
+        <v>280</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>244</v>
+        <v>327</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>281</v>
+        <v>371</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>316</v>
+        <v>415</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/PersonalityTraits.xlsx
+++ b/backgrounds/PersonalityTraits.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="484">
   <si>
     <t>Acolyte</t>
   </si>
@@ -172,12 +172,39 @@
     <t>Rival Intern</t>
   </si>
   <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Sailor</t>
+  </si>
+  <si>
+    <t>Secret Identity</t>
+  </si>
+  <si>
+    <t>Selesnya Initiate</t>
+  </si>
+  <si>
+    <t>Shade Fanatic</t>
+  </si>
+  <si>
+    <t>Shipwright</t>
+  </si>
+  <si>
+    <t>Simic Scientist</t>
+  </si>
+  <si>
     <t>Smuggler</t>
   </si>
   <si>
+    <t>Soldier</t>
+  </si>
+  <si>
     <t>Spy</t>
   </si>
   <si>
+    <t>Stojanow Prisoner</t>
+  </si>
+  <si>
     <t>I idolize a particular hero of my faith, and constantly refer to that person’s deeds and example.</t>
   </si>
   <si>
@@ -316,9 +343,27 @@
     <t>My previous employer didn’t respect me, and now I’ll do whatever I can to gain respect.</t>
   </si>
   <si>
+    <t>Despite its problems, I love Hillsfar. It’s the greatest city in the world, the only one for me.</t>
+  </si>
+  <si>
+    <t>I never raise my voice or lose my temper.</t>
+  </si>
+  <si>
+    <t>I am a bully; I try to hide it though.</t>
+  </si>
+  <si>
+    <t>I love talking and being heard more than I like to listen.</t>
+  </si>
+  <si>
+    <t>I can't wait to see what I become next!</t>
+  </si>
+  <si>
     <t>I love being on the water but hate fishing.</t>
   </si>
   <si>
+    <t>I am a bully; others will suffer as I have.</t>
+  </si>
+  <si>
     <t>I can find common ground between the fiercest enemies, empathizing with them and always working toward peace.</t>
   </si>
   <si>
@@ -457,9 +502,27 @@
     <t>The job is important, but the relationships I forge with my coworkers are even more so.</t>
   </si>
   <si>
+    <t>I move from place to place, never staying anywhere long and leaving nothing behind.</t>
+  </si>
+  <si>
+    <t>I feel the pains and joys of everyone around me, friend or foe.</t>
+  </si>
+  <si>
+    <t>I let my actions speak for themselves</t>
+  </si>
+  <si>
+    <t>I’m extremely fond of puzzles.</t>
+  </si>
+  <si>
+    <t>I am convinced that everything inclines toward constant improvement.</t>
+  </si>
+  <si>
     <t>I think of everything in terms of monetary value.</t>
   </si>
   <si>
+    <t>I always say yes even when I mean no; it’s just easier.</t>
+  </si>
+  <si>
     <t>I see omens in every event and action. The gods try to speak to us, we just need to listen.</t>
   </si>
   <si>
@@ -598,9 +661,27 @@
     <t>The job is everything to me. Who needs relaxation, hobbies, and a social life?</t>
   </si>
   <si>
+    <t>I think flattery is the best way to direct attention away from me.</t>
+  </si>
+  <si>
+    <t>I would rather make a friend than thwart an enemy.</t>
+  </si>
+  <si>
+    <t>I am important; I will not let anyone forget that.</t>
+  </si>
+  <si>
+    <t>I thrive under pressure.</t>
+  </si>
+  <si>
+    <t>I'm eager to explain every detail of my most intricate experiments and theories to anyone who shows the least bit of interest.</t>
+  </si>
+  <si>
     <t>I never stop smiling.</t>
   </si>
   <si>
+    <t>I aim to misbehave.</t>
+  </si>
+  <si>
     <t>Nothing can shake my optimistic attitude.</t>
   </si>
   <si>
@@ -739,9 +820,27 @@
     <t>I know I’m not the best and brightest, but if I put my best self forward, I can overcome anything.</t>
   </si>
   <si>
+    <t>I don’t make friends easily. They’re a liability I cannot afford.</t>
+  </si>
+  <si>
+    <t>I'm always straining to peer into another reality that seems to be just beyond my senses.</t>
+  </si>
+  <si>
+    <t>You are either with me or against me.</t>
+  </si>
+  <si>
+    <t>I love sketching and designing objects, especially boats.</t>
+  </si>
+  <si>
+    <t>I assume that everyone needs even the most basic concepts explained to them.</t>
+  </si>
+  <si>
     <t>Nothing rattles me; I have a lie for every occasion.</t>
   </si>
   <si>
+    <t>I go out of my way to frustrate or anger those in power.</t>
+  </si>
+  <si>
     <t>I quote sacred texts and proverbs in almost every situation.</t>
   </si>
   <si>
@@ -880,9 +979,27 @@
     <t>My former boss was an idiot. So was my boss before that. And before that. I’m sure those were all coincidences.</t>
   </si>
   <si>
+    <t>Risk and danger are exhilarate me. Pulling off schemes and deceptions is a rush.</t>
+  </si>
+  <si>
+    <t>I'm uneasy if I can't see plants growing or feel soil beneath my feet.</t>
+  </si>
+  <si>
+    <t>I know it is only a time before I am betrayed by those I care for.</t>
+  </si>
+  <si>
+    <t>I’m not afraid of hard work-in fact, I prefer it.</t>
+  </si>
+  <si>
+    <t>I describe everything that happens as if it were going into my research notes (and it often is).</t>
+  </si>
+  <si>
     <t>I love gold but won't cheat a friend.</t>
   </si>
   <si>
+    <t>I strive to obey the law. I will never again make the mistake of going against authority.</t>
+  </si>
+  <si>
     <t>I misquote sacred texts and proverbs in almost every situation.</t>
   </si>
   <si>
@@ -1021,9 +1138,27 @@
     <t>This company is so much better than my previous one. It will always be the best until they stop paying me.</t>
   </si>
   <si>
+    <t>The First Lord is right, humans are superior. I really admire them, despite the atrocities.</t>
+  </si>
+  <si>
+    <t>Seeing illness or injury in any creature saddens me.</t>
+  </si>
+  <si>
+    <t>I never understand why people get so emotional.</t>
+  </si>
+  <si>
+    <t>A pipe, an ale, and the smell of the sea; paradise.</t>
+  </si>
+  <si>
+    <t>I am insatiably curious about the seemingly infinite forms and adaptations of life.</t>
+  </si>
+  <si>
     <t>I enjoy doing things others believe to be impossible.</t>
   </si>
   <si>
+    <t>I always plan everything out. The one time I let others plan things it did not end well for me.</t>
+  </si>
+  <si>
     <t>I am tolerant of other faiths and respect the worship of other gods</t>
   </si>
   <si>
@@ -1153,9 +1288,27 @@
     <t>I know this dagger belongs to the company, but I’m sure they won’t miss it. Or this flask. Or this armor.</t>
   </si>
   <si>
+    <t>I avoid people of my own race, as well as things associated with my race, lest they give me away.</t>
+  </si>
+  <si>
+    <t>I have much to be proud of, but I am still just one strand in the grand, interwoven tapestry of life.</t>
+  </si>
+  <si>
+    <t>They are out to get me. It is only my cunning that keeps me ahead of them</t>
+  </si>
+  <si>
+    <t>I have an endless supply of cautionary tales related to the sea.</t>
+  </si>
+  <si>
+    <t>I can't resist prying into anything forbidden, since it must be terribly interesting.</t>
+  </si>
+  <si>
     <t>I become wistful when I see the sun rise over the ocean.</t>
   </si>
   <si>
+    <t>I take blame to protect others from pain.</t>
+  </si>
+  <si>
     <t>I am intolerant of other faiths and condemn the worship of other gods</t>
   </si>
   <si>
@@ -1285,7 +1438,25 @@
     <t>It’s only a matter of time before I’ll be upper management. I just have to kiss up to my superiors and kick down those beneath me.</t>
   </si>
   <si>
+    <t>I live for the Arena. I admire gladiators and enjoy the thrill of blood on the sands!</t>
+  </si>
+  <si>
+    <t>Nature offers rich and abundant metaphors for understanding the complexities of life.</t>
+  </si>
+  <si>
+    <t>Everyone has a choice, the one I make is always right though.</t>
+  </si>
+  <si>
+    <t>I don’t mind getting my hands dirty.</t>
+  </si>
+  <si>
+    <t>I employ a highly technical vocabulary to avoid imprecision and ambiguity in my communication.</t>
+  </si>
+  <si>
     <t>I am no common criminal; I am a mastermind.</t>
+  </si>
+  <si>
+    <t>I hoard information, you never know what may come in handy.</t>
   </si>
   <si>
     <t>I’ve enjoyed fine food, drink, and high society among my temple’s elite. Rough living grates on me.</t>
@@ -1721,1335 +1892,1578 @@
       <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="BC2" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="BC3" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AJ4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AK4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="BC4" s="2" t="s">
-        <v>159</v>
+        <v>210</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="AR5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AS5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>206</v>
+      <c r="BK5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="AY6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AZ6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>253</v>
+      <c r="BK6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>300</v>
+        <v>369</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="BC8" s="2" t="s">
-        <v>346</v>
+        <v>419</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="BA9" s="2" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="BC9" s="2" t="s">
-        <v>390</v>
+        <v>469</v>
+      </c>
+      <c r="BD9" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="BF9" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="BH9" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="BI9" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BJ9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BL9" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/backgrounds/PersonalityTraits.xlsx
+++ b/backgrounds/PersonalityTraits.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="387">
   <si>
     <t>Acolyte</t>
   </si>
@@ -25,15 +25,9 @@
     <t>Athlete</t>
   </si>
   <si>
-    <t>Azorius Functionary</t>
-  </si>
-  <si>
     <t>Black Fist Double Agent</t>
   </si>
   <si>
-    <t>Boros Legionnaire</t>
-  </si>
-  <si>
     <t>Caravan Specialist</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Criminal</t>
   </si>
   <si>
-    <t>Dragon Casualty</t>
-  </si>
-  <si>
     <t>Earthspur Miner</t>
   </si>
   <si>
@@ -88,12 +79,6 @@
     <t>Gate Urchin</t>
   </si>
   <si>
-    <t>Golgari Agent</t>
-  </si>
-  <si>
-    <t>Gruul Anarch</t>
-  </si>
-  <si>
     <t>Gambler</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>Hillsfar Smuggler</t>
   </si>
   <si>
-    <t>House Agent</t>
-  </si>
-  <si>
     <t>Inheritor</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>Iron Route Bandit</t>
   </si>
   <si>
-    <t>Izzet Engineer</t>
-  </si>
-  <si>
     <t>Knight</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t>Noble</t>
   </si>
   <si>
-    <t>Orzhov Representative</t>
-  </si>
-  <si>
     <t>Outlander</t>
   </si>
   <si>
@@ -166,9 +142,6 @@
     <t>Plaintiff</t>
   </si>
   <si>
-    <t>Rakdos Cultist</t>
-  </si>
-  <si>
     <t>Rival Intern</t>
   </si>
   <si>
@@ -181,18 +154,12 @@
     <t>Secret Identity</t>
   </si>
   <si>
-    <t>Selesnya Initiate</t>
-  </si>
-  <si>
     <t>Shade Fanatic</t>
   </si>
   <si>
     <t>Shipwright</t>
   </si>
   <si>
-    <t>Simic Scientist</t>
-  </si>
-  <si>
     <t>Smuggler</t>
   </si>
   <si>
@@ -217,15 +184,9 @@
     <t>I feel most at peace during physical exertion, whether exercise or battle.</t>
   </si>
   <si>
-    <t>I try never to let my judgment become clouded by emotion.</t>
-  </si>
-  <si>
     <t>People are only as trustworthy as you are valuable to them. Always strive to be the most valuable person around.</t>
   </si>
   <si>
-    <t>I approach every task with the same high degree of military precision.</t>
-  </si>
-  <si>
     <t>Any group is only as strong as its weakest link. Everyone has to pull their own weight.</t>
   </si>
   <si>
@@ -247,9 +208,6 @@
     <t>I long for a home that never really existed,whether in the camps, Hillsfar, or Myth Drannor.</t>
   </si>
   <si>
-    <t>I am driven to escape my past, and rarely stay in one place long.</t>
-  </si>
-  <si>
     <t>Nothing bothers me for long.</t>
   </si>
   <si>
@@ -274,12 +232,6 @@
     <t>I appreciate the simple things in life: a song, a warm meal, a sunny day. I don't need any more.</t>
   </si>
   <si>
-    <t>Remember, I could kill you in your sleep. Or put centipedes in your bedroll.</t>
-  </si>
-  <si>
-    <t>Unlike people, the beasts of the wild are friends who won't stab me in the back.</t>
-  </si>
-  <si>
     <t>I plan for every contingency. Leave nothing to chance!</t>
   </si>
   <si>
@@ -298,9 +250,6 @@
     <t>When I'm not smuggling, I gamble.</t>
   </si>
   <si>
-    <t>I 'm always looking to i mprove efficiency.</t>
-  </si>
-  <si>
     <t>I always have a joke on hand when the mood gets too serious.</t>
   </si>
   <si>
@@ -310,18 +259,12 @@
     <t>If people leave their gear unsecured, they must not want it very much.</t>
   </si>
   <si>
-    <t>I have a hard time staying focused on ? oh, and my brain tends to jump from one ? did I mention focus?</t>
-  </si>
-  <si>
     <t>My eloquent flattery makes everyone I talk to feel like the most wonderful and important person in the world.</t>
   </si>
   <si>
     <t>My ambitions are boundless. I will be a Zor or Zora one day!</t>
   </si>
   <si>
-    <t>I am always willing to act in accordance with the financial incentive offered.</t>
-  </si>
-  <si>
     <t>I'm driven by a wanderlust that led me away from home.</t>
   </si>
   <si>
@@ -337,27 +280,18 @@
     <t>I can't believe I have a chance to join Acquisitions Incorporated! The fun I'm going to have!</t>
   </si>
   <si>
-    <t>I revel in mayhem, the more destructive the better.</t>
-  </si>
-  <si>
     <t>My previous employer didn’t respect me, and now I’ll do whatever I can to gain respect.</t>
   </si>
   <si>
     <t>Despite its problems, I love Hillsfar. It’s the greatest city in the world, the only one for me.</t>
   </si>
   <si>
-    <t>I never raise my voice or lose my temper.</t>
-  </si>
-  <si>
     <t>I am a bully; I try to hide it though.</t>
   </si>
   <si>
     <t>I love talking and being heard more than I like to listen.</t>
   </si>
   <si>
-    <t>I can't wait to see what I become next!</t>
-  </si>
-  <si>
     <t>I love being on the water but hate fishing.</t>
   </si>
   <si>
@@ -376,15 +310,9 @@
     <t>I don't like to sit idle.</t>
   </si>
   <si>
-    <t>I have infinite patience with the dolts and boors I'm forced to deal with every day.</t>
-  </si>
-  <si>
     <t>My eloquence and sophistication are tools I use to avoid arousing suspicion myself.</t>
   </si>
   <si>
-    <t>I am always the first into the fray.</t>
-  </si>
-  <si>
     <t>There's always someone out there trying to take what I've got. Always be vigilant.</t>
   </si>
   <si>
@@ -406,9 +334,6 @@
     <t>Though I am not an elf, I am a fervent, radical worshipper of the elven gods.</t>
   </si>
   <si>
-    <t>I know secrets of the Maimed Virulence, but fear the harm that may befall me should others learn them.</t>
-  </si>
-  <si>
     <t>I hate the horrors of the Underdark with a passion. They took my friends and family and almost got me.</t>
   </si>
   <si>
@@ -433,12 +358,6 @@
     <t>My problems are always caused by others. I'm never to blame.</t>
   </si>
   <si>
-    <t>I like to remind people of their inevitable demise.</t>
-  </si>
-  <si>
-    <t>Go ahead and insult me - I dare you.</t>
-  </si>
-  <si>
     <t>Every copper wants to be a silver. Each bet is an opportunity.</t>
   </si>
   <si>
@@ -457,9 +376,6 @@
     <t>I just love Halfling cooking and baking!</t>
   </si>
   <si>
-    <t>I love to share trivia about my house's business.</t>
-  </si>
-  <si>
     <t>I use sarcasm and insults to keep a distance between myself and my crop-mates, because I don’t want to get attached to them.</t>
   </si>
   <si>
@@ -469,18 +385,12 @@
     <t>I feel more comfortable sleeping under the open sky.</t>
   </si>
   <si>
-    <t>I get really excited about my ideas and I can't wait to talk about them and start putting them into practice and tinkering with them and I want to tell you about how exciting it all is!</t>
-  </si>
-  <si>
     <t>The common folk love me for my kindness and generosity.</t>
   </si>
   <si>
     <t>I must always look my best.</t>
   </si>
   <si>
-    <t>Debts are never meant to be forgiven.</t>
-  </si>
-  <si>
     <t>I watch over my friends as if they were a litter of newborn pups.</t>
   </si>
   <si>
@@ -496,27 +406,18 @@
     <t>I've been wronged my entire life, and the world owes me.</t>
   </si>
   <si>
-    <t>When violence breaks out, I lose myself in rage, and it's sometimes hard to stop.</t>
-  </si>
-  <si>
     <t>The job is important, but the relationships I forge with my coworkers are even more so.</t>
   </si>
   <si>
     <t>I move from place to place, never staying anywhere long and leaving nothing behind.</t>
   </si>
   <si>
-    <t>I feel the pains and joys of everyone around me, friend or foe.</t>
-  </si>
-  <si>
     <t>I let my actions speak for themselves</t>
   </si>
   <si>
     <t>I’m extremely fond of puzzles.</t>
   </si>
   <si>
-    <t>I am convinced that everything inclines toward constant improvement.</t>
-  </si>
-  <si>
     <t>I think of everything in terms of monetary value.</t>
   </si>
   <si>
@@ -535,15 +436,9 @@
     <t>I have a daily exercise routine I refuse to break.</t>
   </si>
   <si>
-    <t>When I give an order, I expect it to be obeyed.</t>
-  </si>
-  <si>
     <t>I am a thrill-seeker, excited by covert and dangerous missions.</t>
   </si>
   <si>
-    <t>I bear any injury or indignity with stoic discipline.</t>
-  </si>
-  <si>
     <t>Anything can be learned if you have the right teacher. Most folks just need a chance.</t>
   </si>
   <si>
@@ -565,9 +460,6 @@
     <t>I live in the moment, knowing my life could be turned upside down any day.</t>
   </si>
   <si>
-    <t>Speaking of my ordeal helps sooth the still open wounds in my soul.</t>
-  </si>
-  <si>
     <t>Anything worth doing takes time and patience. I have learned to plan and wait for the things I want and to be patient to achieve my goals.</t>
   </si>
   <si>
@@ -592,12 +484,6 @@
     <t>I am afraid I could wind up back on the streets any day.</t>
   </si>
   <si>
-    <t>Sometimes I give voice to the whispers of the rot, which I hear but no one else does.</t>
-  </si>
-  <si>
-    <t>I scorn those who can't survive away from the comforts of the city.</t>
-  </si>
-  <si>
     <t>I'm one of Lady Luck's favored. Anything I try is destined to succeed.</t>
   </si>
   <si>
@@ -616,9 +502,6 @@
     <t>I party with dwarves whenever I can.</t>
   </si>
   <si>
-    <t>I never forget an insult against me or my house.</t>
-  </si>
-  <si>
     <t>I’ll settle for nothing less than perfection—in myself, in my cropmates, in everything.</t>
   </si>
   <si>
@@ -628,18 +511,12 @@
     <t>I always pre-plan my escape should things go bad; I always like to have an exit strategy.</t>
   </si>
   <si>
-    <t>It's not magic-or anything, really-if you do it only halfway. Whatever I do, I give it all I've got.</t>
-  </si>
-  <si>
     <t>No one could doubt by looking at my regal bearing that I am a cut above the unwashed masses.</t>
   </si>
   <si>
     <t>Beauty is everywhere. I can find it in even the homeliest person and the most horrible tragedy.</t>
   </si>
   <si>
-    <t>I am accustomed to enjoying the finest pleasures money can buy.</t>
-  </si>
-  <si>
     <t>I once ran twenty-five miles without stopping to warn my clan of an approaching orc horde. I'd do it again if I had to.</t>
   </si>
   <si>
@@ -655,27 +532,18 @@
     <t>I have always tried to make the best of a bad situation.</t>
   </si>
   <si>
-    <t>Everything is funny to me, and the most hilarious and bloodiest things leave me cackling with sadistic glee.</t>
-  </si>
-  <si>
     <t>The job is everything to me. Who needs relaxation, hobbies, and a social life?</t>
   </si>
   <si>
     <t>I think flattery is the best way to direct attention away from me.</t>
   </si>
   <si>
-    <t>I would rather make a friend than thwart an enemy.</t>
-  </si>
-  <si>
     <t>I am important; I will not let anyone forget that.</t>
   </si>
   <si>
     <t>I thrive under pressure.</t>
   </si>
   <si>
-    <t>I'm eager to explain every detail of my most intricate experiments and theories to anyone who shows the least bit of interest.</t>
-  </si>
-  <si>
     <t>I never stop smiling.</t>
   </si>
   <si>
@@ -694,15 +562,9 @@
     <t>Obstacles exist to be overcome.</t>
   </si>
   <si>
-    <t>I just want things the way I like them: neat, orderly, and clean.</t>
-  </si>
-  <si>
     <t>I live by my wits and always check every lock twice, just to be certain.</t>
   </si>
   <si>
-    <t>My righteous wrath is easily inflamed by the slightest iniquity.</t>
-  </si>
-  <si>
     <t>Early to bed and early to rise; this much at least is under my control.</t>
   </si>
   <si>
@@ -724,9 +586,6 @@
     <t>I appreciate beauty in all of its forms.</t>
   </si>
   <si>
-    <t>My former life is meaningless, and was ripped to shreds by the claws of Vorgansharax. All that matters now is what I do with the future.</t>
-  </si>
-  <si>
     <t>I can party with everyone. Whether with dwarves, or goliaths, or deep gnomes, I can find a way to have a good time.</t>
   </si>
   <si>
@@ -751,12 +610,6 @@
     <t>I get along with everyone.</t>
   </si>
   <si>
-    <t>I do my best to discourage anyone from approaching or talking to me.</t>
-  </si>
-  <si>
-    <t>Don't tell me I'm not allowed to do something.</t>
-  </si>
-  <si>
     <t>I've lost so much to gambling that I refuse to spend money on anything anymore.</t>
   </si>
   <si>
@@ -775,9 +628,6 @@
     <t>I'm a terrible singer, but I love to do it.</t>
   </si>
   <si>
-    <t>I'm enthusiastic about everything my house does.</t>
-  </si>
-  <si>
     <t>I’m so focused on the glorious afterlife that nothing in this life can shake my calm resolve.</t>
   </si>
   <si>
@@ -787,18 +637,12 @@
     <t>I tend to give animal owners breeding and care advice whether or not they want it.</t>
   </si>
   <si>
-    <t>I do what my gut tells me.</t>
-  </si>
-  <si>
     <t>I take great pains to always look my best and follow the latest fashions.</t>
   </si>
   <si>
     <t>Decorum must be preserved at all costs.</t>
   </si>
   <si>
-    <t>No one could doubt that I am a cut above the masses of pitiful peasants that infest the city.</t>
-  </si>
-  <si>
     <t>I have a lesson for every situation, drawn from observing nature.</t>
   </si>
   <si>
@@ -814,27 +658,18 @@
     <t>The law doesn't protect the honest and the hard working. I'm going to do whatever needs to be done to make things right.</t>
   </si>
   <si>
-    <t>I derive genuine pleasure from the pain of others.</t>
-  </si>
-  <si>
     <t>I know I’m not the best and brightest, but if I put my best self forward, I can overcome anything.</t>
   </si>
   <si>
     <t>I don’t make friends easily. They’re a liability I cannot afford.</t>
   </si>
   <si>
-    <t>I'm always straining to peer into another reality that seems to be just beyond my senses.</t>
-  </si>
-  <si>
     <t>You are either with me or against me.</t>
   </si>
   <si>
     <t>I love sketching and designing objects, especially boats.</t>
   </si>
   <si>
-    <t>I assume that everyone needs even the most basic concepts explained to them.</t>
-  </si>
-  <si>
     <t>Nothing rattles me; I have a lie for every occasion.</t>
   </si>
   <si>
@@ -853,15 +688,9 @@
     <t>I get irritated if people praise someone else and not me.</t>
   </si>
   <si>
-    <t>No wrongdoing can escape my watchful gaze.</t>
-  </si>
-  <si>
     <t>I never admit to my mistakes lest they be used against me.</t>
   </si>
   <si>
-    <t>My honor is more important to me than my life.</t>
-  </si>
-  <si>
     <t>You can listen to me or don't and wish you had. Everyone ends up on one side of that fence.</t>
   </si>
   <si>
@@ -883,9 +712,6 @@
     <t>I hate the dark elves and the Netherese for each driving the elves out of Cormanthyr in the past.</t>
   </si>
   <si>
-    <t>I have faced the worst a dragon can deliver and survived. I am fearless, and my resolve unshakable.</t>
-  </si>
-  <si>
     <t>I'd rather be mining. This is okay; mining is better.</t>
   </si>
   <si>
@@ -910,12 +736,6 @@
     <t>I see people as marks for a con and have difficulty feeling true empathy for them.</t>
   </si>
   <si>
-    <t>I have accepted my death. Hence, I don't fear it.</t>
-  </si>
-  <si>
-    <t>Laws are for people who are afraid to face their inner beasts.</t>
-  </si>
-  <si>
     <t>Nothing is certain. Planning is a coward's act.</t>
   </si>
   <si>
@@ -934,9 +754,6 @@
     <t>I was raised to honor Chauntea and still do.</t>
   </si>
   <si>
-    <t>I represent my house and take pride in my looks.</t>
-  </si>
-  <si>
     <t>I enjoy using my skills to help those who lack those same skills.</t>
   </si>
   <si>
@@ -946,18 +763,12 @@
     <t>I lost a pet as a child and sadly reflect on it to this day.</t>
   </si>
   <si>
-    <t>Life's an experiment, and I can't wait to see what happens.</t>
-  </si>
-  <si>
     <t>I don't like to get my hands dirty, and I won't be caught dead in unsuitable accommodations.</t>
   </si>
   <si>
     <t>I will not admit I am wrong if I can avoid it.</t>
   </si>
   <si>
-    <t>I can't stand to spend a zib more than necessary to purchase what I need.</t>
-  </si>
-  <si>
     <t>I place no stock in wealthy or well-mannered folk. Money and manners won't save you from a hungry owlbear.</t>
   </si>
   <si>
@@ -973,27 +784,18 @@
     <t>I'm always in the wrong place at the wrong time.</t>
   </si>
   <si>
-    <t>I enjoy testing other people's patience.</t>
-  </si>
-  <si>
     <t>My former boss was an idiot. So was my boss before that. And before that. I’m sure those were all coincidences.</t>
   </si>
   <si>
     <t>Risk and danger are exhilarate me. Pulling off schemes and deceptions is a rush.</t>
   </si>
   <si>
-    <t>I'm uneasy if I can't see plants growing or feel soil beneath my feet.</t>
-  </si>
-  <si>
     <t>I know it is only a time before I am betrayed by those I care for.</t>
   </si>
   <si>
     <t>I’m not afraid of hard work-in fact, I prefer it.</t>
   </si>
   <si>
-    <t>I describe everything that happens as if it were going into my research notes (and it often is).</t>
-  </si>
-  <si>
     <t>I love gold but won't cheat a friend.</t>
   </si>
   <si>
@@ -1012,15 +814,9 @@
     <t>When I see others struggling, I offer to help.</t>
   </si>
   <si>
-    <t>I always say exactly what I mean, no matter how many words it takes to communicate the particular nuance I am attempting to convey.</t>
-  </si>
-  <si>
     <t>I take every effort to be unnoticeable and blend into the crowd. Passersby rarely give me a second look.</t>
   </si>
   <si>
-    <t>Dangerous work is best accomplished by an orderly group working with common purpose.</t>
-  </si>
-  <si>
     <t>Eventually my hard work will be rewarded. Maybe that time has finally come.</t>
   </si>
   <si>
@@ -1042,9 +838,6 @@
     <t>I am a forest bumpkin who grew up in a tent in the woods and is wholly ignorant of city life.</t>
   </si>
   <si>
-    <t>I am haunted by my tortured past, and wake at night screaming at half-remembered horrors.</t>
-  </si>
-  <si>
     <t>I think that I will stumble upon great riches if I just keep looking.</t>
   </si>
   <si>
@@ -1069,12 +862,6 @@
     <t>I have a real flair for matchmaking. I can find anyone a spouse!</t>
   </si>
   <si>
-    <t>Like roots growing through stone, I am relentless and determined in my action.</t>
-  </si>
-  <si>
-    <t>I smear the blood of my enemies over my skin.</t>
-  </si>
-  <si>
     <t>I can't be sure who I've swindled, cheated, or defeated, so I keep a low profile in public.</t>
   </si>
   <si>
@@ -1093,9 +880,6 @@
     <t>The blood sports of the Arena sicken me.</t>
   </si>
   <si>
-    <t>I'm critical of monarchies and limits on the houses.</t>
-  </si>
-  <si>
     <t>I train hard so that I can play hard at the end of the day. I fully expect to play even harder in the glorious afterlife, but I’m not in a hurry to get there.</t>
   </si>
   <si>
@@ -1105,18 +889,12 @@
     <t>I always form a powerful, emotional bond with my mount.</t>
   </si>
   <si>
-    <t>I pepper my speech with the incomprehensible jargon of my trade, like mizzium droplets inserted into a weird-field suspension.</t>
-  </si>
-  <si>
     <t>Despite my noble birth, I do not place myself above other folk. We all have the same blood.</t>
   </si>
   <si>
     <t>I am extremely well-educated and frequently remind others of that fact.</t>
   </si>
   <si>
-    <t>I hate it when people try to make light of a serious situation.</t>
-  </si>
-  <si>
     <t>I'm always picking things up, absently fiddling with them, and sometimes accidentally breaking them.</t>
   </si>
   <si>
@@ -1132,27 +910,18 @@
     <t>My superiors are smarter and wiser than I am. I do what I'm told.</t>
   </si>
   <si>
-    <t>I can't stand it when things are predictable, so I like to add a little chaos to every situation.</t>
-  </si>
-  <si>
     <t>This company is so much better than my previous one. It will always be the best until they stop paying me.</t>
   </si>
   <si>
     <t>The First Lord is right, humans are superior. I really admire them, despite the atrocities.</t>
   </si>
   <si>
-    <t>Seeing illness or injury in any creature saddens me.</t>
-  </si>
-  <si>
     <t>I never understand why people get so emotional.</t>
   </si>
   <si>
     <t>A pipe, an ale, and the smell of the sea; paradise.</t>
   </si>
   <si>
-    <t>I am insatiably curious about the seemingly infinite forms and adaptations of life.</t>
-  </si>
-  <si>
     <t>I enjoy doing things others believe to be impossible.</t>
   </si>
   <si>
@@ -1168,15 +937,9 @@
     <t>I love to trade banter and gibes.</t>
   </si>
   <si>
-    <t>I'm very literal and don't appreciate metaphor or sarcasm.</t>
-  </si>
-  <si>
     <t>I am prepared for any eventuality; including the day my usefulness as a spy comes to an end.</t>
   </si>
   <si>
-    <t>I treat my weapon, uniform, and insignia with reverence, for they are gifts of the angels.</t>
-  </si>
-  <si>
     <t>A strong ox or horse is more reliable than most people I've met.</t>
   </si>
   <si>
@@ -1198,9 +961,6 @@
     <t>I was raised alongside children of many other races. I harbor no racial prejudices at all.</t>
   </si>
   <si>
-    <t>I sleep with my back to a wall or tree, and a weapon within arm’s reach.</t>
-  </si>
-  <si>
     <t>People who don't work with their hands and who live in houses are soft and weak.</t>
   </si>
   <si>
@@ -1222,12 +982,6 @@
     <t>I think money is the true measure of appreciation and affection. Everything else is talk or an act.</t>
   </si>
   <si>
-    <t>I put my knowledge of anatomy to use by narrating the injuries my enemies suffer in grisly detail.</t>
-  </si>
-  <si>
-    <t>I was, in fact, raised by maaka.</t>
-  </si>
-  <si>
     <t>The perfect bet is out there somewhere. I just have to keep my eyes open.</t>
   </si>
   <si>
@@ -1255,18 +1009,12 @@
     <t>I recoil at the thought of killing someone else’s pet or mount.</t>
   </si>
   <si>
-    <t>Great ideas are fine, but great results are what counts.</t>
-  </si>
-  <si>
     <t>My favor, once lost, is lost forever.</t>
   </si>
   <si>
     <t>I take what I can today, because I do not know what tomorrow holds.</t>
   </si>
   <si>
-    <t>I want to make sure everyone is aware of how wealthy, powerful, and important I am.</t>
-  </si>
-  <si>
     <t>I feel far more comfortable around animals than people.</t>
   </si>
   <si>
@@ -1282,27 +1030,18 @@
     <t>Never pass up the opportunity to make an easy bit of coin. That's my motto.</t>
   </si>
   <si>
-    <t>I throw my weight around to make sure I get my way.</t>
-  </si>
-  <si>
     <t>I know this dagger belongs to the company, but I’m sure they won’t miss it. Or this flask. Or this armor.</t>
   </si>
   <si>
     <t>I avoid people of my own race, as well as things associated with my race, lest they give me away.</t>
   </si>
   <si>
-    <t>I have much to be proud of, but I am still just one strand in the grand, interwoven tapestry of life.</t>
-  </si>
-  <si>
     <t>They are out to get me. It is only my cunning that keeps me ahead of them</t>
   </si>
   <si>
     <t>I have an endless supply of cautionary tales related to the sea.</t>
   </si>
   <si>
-    <t>I can't resist prying into anything forbidden, since it must be terribly interesting.</t>
-  </si>
-  <si>
     <t>I become wistful when I see the sun rise over the ocean.</t>
   </si>
   <si>
@@ -1318,15 +1057,9 @@
     <t>Anything worth doing is worth doing best.</t>
   </si>
   <si>
-    <t>I never change my mind once it's made up.</t>
-  </si>
-  <si>
     <t>I always make certain to know my enemy before acting, lest I bite off more than I can chew.</t>
   </si>
   <si>
-    <t>I pace when standing and fidget incessantly when forced to sit.</t>
-  </si>
-  <si>
     <t>I never had time for books, but wish I had. I admire folks who have taken the time to learn.</t>
   </si>
   <si>
@@ -1348,9 +1081,6 @@
     <t>The elves have just the right word for so many things that cannot be expressed as well in other languages. I pepper my speech with elven words, phrases, and sayings.</t>
   </si>
   <si>
-    <t>I am slow to trust, but incredibly loyal to those who have earned it.</t>
-  </si>
-  <si>
     <t>I wish I were more educated. I look up to people who are.</t>
   </si>
   <si>
@@ -1372,12 +1102,6 @@
     <t>I don't like having a lot of stuff, just a few simple things I need. I don't like being tied down and tend to leave things behind when I don't need them anymore.</t>
   </si>
   <si>
-    <t>Like a wild animal, I lash out viciously when I'm provoked-and I'm easily provoked.</t>
-  </si>
-  <si>
-    <t>HarrRRAAGGHH! [I rarely form a coherent sentence and prefer to express myself by breaking things.]</t>
-  </si>
-  <si>
     <t>I have beaten my addiction, but all it takes is one weak moment and I'll be back at the card table.</t>
   </si>
   <si>
@@ -1405,18 +1129,12 @@
     <t>I prefer to hang to the back of a scuffle or discussion. Better to have my enemies in front of me.</t>
   </si>
   <si>
-    <t>If you can guess what I'm about to do, that means I've run out of imagination.</t>
-  </si>
-  <si>
     <t>If you do me an injury, I will crush you, ruin your name, and salt your fields.</t>
   </si>
   <si>
     <t>My life is full of dance, song, drink, and love.</t>
   </si>
   <si>
-    <t>I can't think of anything to look forward to.</t>
-  </si>
-  <si>
     <t>I was, in fact, raised by wolves.</t>
   </si>
   <si>
@@ -1432,25 +1150,16 @@
     <t>I'm beginning to feel like the gods are not on my side.</t>
   </si>
   <si>
-    <t>I enjoy breaking delicate works of art. And fingers, which are sort of the same.</t>
-  </si>
-  <si>
     <t>It’s only a matter of time before I’ll be upper management. I just have to kiss up to my superiors and kick down those beneath me.</t>
   </si>
   <si>
     <t>I live for the Arena. I admire gladiators and enjoy the thrill of blood on the sands!</t>
   </si>
   <si>
-    <t>Nature offers rich and abundant metaphors for understanding the complexities of life.</t>
-  </si>
-  <si>
     <t>Everyone has a choice, the one I make is always right though.</t>
   </si>
   <si>
     <t>I don’t mind getting my hands dirty.</t>
-  </si>
-  <si>
-    <t>I employ a highly technical vocabulary to avoid imprecision and ambiguity in my communication.</t>
   </si>
   <si>
     <t>I am no common criminal; I am a mastermind.</t>
@@ -1754,10 +1463,10 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1885,1585 +1594,1292 @@
       </c>
       <c r="BA1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA4" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL4" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BK5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL5" s="2" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="BF7" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="BI7" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="BK7" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="BL7" s="2" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>391</v>
+        <v>314</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>394</v>
+        <v>312</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>400</v>
+        <v>322</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>408</v>
+        <v>330</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>409</v>
+        <v>331</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="AJ8" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="AK8" s="2" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>416</v>
+        <v>339</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>418</v>
+        <v>340</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>419</v>
+        <v>341</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>422</v>
+        <v>312</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="BH8" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="BI8" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="BK8" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL8" s="2" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>450</v>
+        <v>362</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>454</v>
+        <v>365</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="AJ9" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="AK9" s="2" t="s">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>461</v>
+        <v>372</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>464</v>
+        <v>376</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>465</v>
+        <v>377</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="BA9" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="BC9" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="BD9" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="BE9" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="BF9" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="BG9" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="BH9" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="BI9" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="BJ9" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="BK9" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="BL9" s="2" t="s">
-        <v>481</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>482</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>483</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
